--- a/eurf.xlsx
+++ b/eurf.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shema\Dropbox\SFM\EPFL_position\teaching\sustainable_finance\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mbela\Downloads\Data_Excel\Data_Excel\MSCI_ESGscores\FF\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0C63B9D-3CC3-4B5D-B5B2-5366B6995397}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{133A9703-BA79-4650-9FF6-1C28809FCFDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{50FC72A7-C13A-4AA5-ADA7-E409A5B38808}"/>
+    <workbookView xWindow="1428" yWindow="1476" windowWidth="17280" windowHeight="9960" xr2:uid="{50FC72A7-C13A-4AA5-ADA7-E409A5B38808}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -32,6 +32,14 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+  <si>
+    <t>Risk-free rate</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -384,1835 +392,1840 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E47A2C76-4B98-4271-8A66-2C5FD63974FA}">
-  <dimension ref="A1:B228"/>
+  <dimension ref="A1:B229"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A228"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1" s="1">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
         <v>37287</v>
       </c>
-      <c r="B1">
+      <c r="B2">
         <v>1.4000000000000002E-3</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2" s="1">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
         <v>37315</v>
-      </c>
-      <c r="B2">
-        <v>1.2999999999999999E-3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3" s="1">
-        <v>37346</v>
       </c>
       <c r="B3">
         <v>1.2999999999999999E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
+        <v>37346</v>
+      </c>
+      <c r="B4">
+        <v>1.2999999999999999E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
         <v>37376</v>
       </c>
-      <c r="B4">
+      <c r="B5">
         <v>1.5E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A5" s="1">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
         <v>37407</v>
       </c>
-      <c r="B5">
+      <c r="B6">
         <v>1.4000000000000002E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A6" s="1">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
         <v>37437</v>
       </c>
-      <c r="B6">
+      <c r="B7">
         <v>1.2999999999999999E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A7" s="1">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
         <v>37468</v>
       </c>
-      <c r="B7">
+      <c r="B8">
         <v>1.5E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A8" s="1">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
         <v>37499</v>
-      </c>
-      <c r="B8">
-        <v>1.4000000000000002E-3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A9" s="1">
-        <v>37529</v>
       </c>
       <c r="B9">
         <v>1.4000000000000002E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
-        <v>37560</v>
+        <v>37529</v>
       </c>
       <c r="B10">
         <v>1.4000000000000002E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
+        <v>37560</v>
+      </c>
+      <c r="B11">
+        <v>1.4000000000000002E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
         <v>37590</v>
       </c>
-      <c r="B11">
+      <c r="B12">
         <v>1.1999999999999999E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A12" s="1">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
         <v>37621</v>
       </c>
-      <c r="B12">
+      <c r="B13">
         <v>1.1000000000000001E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A13" s="1">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
         <v>37652</v>
       </c>
-      <c r="B13">
+      <c r="B14">
         <v>1E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A14" s="1">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
         <v>37680</v>
       </c>
-      <c r="B14">
+      <c r="B15">
         <v>8.9999999999999998E-4</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A15" s="1">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
         <v>37711</v>
-      </c>
-      <c r="B15">
-        <v>1E-3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A16" s="1">
-        <v>37741</v>
       </c>
       <c r="B16">
         <v>1E-3</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
+        <v>37741</v>
+      </c>
+      <c r="B17">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" s="1">
         <v>37772</v>
       </c>
-      <c r="B17">
+      <c r="B18">
         <v>8.9999999999999998E-4</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A18" s="1">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" s="1">
         <v>37802</v>
       </c>
-      <c r="B18">
+      <c r="B19">
         <v>1E-3</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A19" s="1">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" s="1">
         <v>37833</v>
-      </c>
-      <c r="B19">
-        <v>7.000000000000001E-4</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A20" s="1">
-        <v>37864</v>
       </c>
       <c r="B20">
         <v>7.000000000000001E-4</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
+        <v>37864</v>
+      </c>
+      <c r="B21">
+        <v>7.000000000000001E-4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" s="1">
         <v>37894</v>
       </c>
-      <c r="B21">
+      <c r="B22">
         <v>8.0000000000000004E-4</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A22" s="1">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" s="1">
         <v>37925</v>
-      </c>
-      <c r="B22">
-        <v>7.000000000000001E-4</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A23" s="1">
-        <v>37955</v>
       </c>
       <c r="B23">
         <v>7.000000000000001E-4</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
+        <v>37955</v>
+      </c>
+      <c r="B24">
+        <v>7.000000000000001E-4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" s="1">
         <v>37986</v>
       </c>
-      <c r="B24">
+      <c r="B25">
         <v>8.0000000000000004E-4</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A25" s="1">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" s="1">
         <v>38017</v>
       </c>
-      <c r="B25">
+      <c r="B26">
         <v>7.000000000000001E-4</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A26" s="1">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27" s="1">
         <v>38046</v>
       </c>
-      <c r="B26">
+      <c r="B27">
         <v>5.9999999999999995E-4</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A27" s="1">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28" s="1">
         <v>38077</v>
       </c>
-      <c r="B27">
+      <c r="B28">
         <v>8.9999999999999998E-4</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A28" s="1">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29" s="1">
         <v>38107</v>
       </c>
-      <c r="B28">
+      <c r="B29">
         <v>8.0000000000000004E-4</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A29" s="1">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30" s="1">
         <v>38138</v>
       </c>
-      <c r="B29">
+      <c r="B30">
         <v>5.9999999999999995E-4</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A30" s="1">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31" s="1">
         <v>38168</v>
       </c>
-      <c r="B30">
+      <c r="B31">
         <v>8.0000000000000004E-4</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A31" s="1">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A32" s="1">
         <v>38199</v>
       </c>
-      <c r="B31">
+      <c r="B32">
         <v>1E-3</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A32" s="1">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33" s="1">
         <v>38230</v>
-      </c>
-      <c r="B32">
-        <v>1.1000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A33" s="1">
-        <v>38260</v>
       </c>
       <c r="B33">
         <v>1.1000000000000001E-3</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
-        <v>38291</v>
+        <v>38260</v>
       </c>
       <c r="B34">
         <v>1.1000000000000001E-3</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
+        <v>38291</v>
+      </c>
+      <c r="B35">
+        <v>1.1000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36" s="1">
         <v>38321</v>
       </c>
-      <c r="B35">
+      <c r="B36">
         <v>1.5E-3</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A36" s="1">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37" s="1">
         <v>38352</v>
-      </c>
-      <c r="B36">
-        <v>1.6000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A37" s="1">
-        <v>38383</v>
       </c>
       <c r="B37">
         <v>1.6000000000000001E-3</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
-        <v>38411</v>
+        <v>38383</v>
       </c>
       <c r="B38">
         <v>1.6000000000000001E-3</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
+        <v>38411</v>
+      </c>
+      <c r="B39">
+        <v>1.6000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A40" s="1">
         <v>38442</v>
-      </c>
-      <c r="B39">
-        <v>2.0999999999999999E-3</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A40" s="1">
-        <v>38472</v>
       </c>
       <c r="B40">
         <v>2.0999999999999999E-3</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
+        <v>38472</v>
+      </c>
+      <c r="B41">
+        <v>2.0999999999999999E-3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A42" s="1">
         <v>38503</v>
       </c>
-      <c r="B41">
+      <c r="B42">
         <v>2.3999999999999998E-3</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A42" s="1">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A43" s="1">
         <v>38533</v>
       </c>
-      <c r="B42">
+      <c r="B43">
         <v>2.3E-3</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A43" s="1">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A44" s="1">
         <v>38564</v>
       </c>
-      <c r="B43">
+      <c r="B44">
         <v>2.3999999999999998E-3</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A44" s="1">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A45" s="1">
         <v>38595</v>
       </c>
-      <c r="B44">
+      <c r="B45">
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A45" s="1">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A46" s="1">
         <v>38625</v>
       </c>
-      <c r="B45">
+      <c r="B46">
         <v>2.8999999999999998E-3</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A46" s="1">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A47" s="1">
         <v>38656</v>
       </c>
-      <c r="B46">
+      <c r="B47">
         <v>2.7000000000000001E-3</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A47" s="1">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A48" s="1">
         <v>38686</v>
       </c>
-      <c r="B47">
+      <c r="B48">
         <v>3.0999999999999999E-3</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A48" s="1">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A49" s="1">
         <v>38717</v>
       </c>
-      <c r="B48">
+      <c r="B49">
         <v>3.2000000000000002E-3</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A49" s="1">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A50" s="1">
         <v>38748</v>
       </c>
-      <c r="B49">
+      <c r="B50">
         <v>3.4999999999999996E-3</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A50" s="1">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A51" s="1">
         <v>38776</v>
       </c>
-      <c r="B50">
+      <c r="B51">
         <v>3.4000000000000002E-3</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A51" s="1">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A52" s="1">
         <v>38807</v>
       </c>
-      <c r="B51">
+      <c r="B52">
         <v>3.7000000000000002E-3</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A52" s="1">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A53" s="1">
         <v>38837</v>
       </c>
-      <c r="B52">
+      <c r="B53">
         <v>3.5999999999999999E-3</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A53" s="1">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A54" s="1">
         <v>38868</v>
       </c>
-      <c r="B53">
+      <c r="B54">
         <v>4.3E-3</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A54" s="1">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A55" s="1">
         <v>38898</v>
-      </c>
-      <c r="B54">
-        <v>4.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A55" s="1">
-        <v>38929</v>
       </c>
       <c r="B55">
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
+        <v>38929</v>
+      </c>
+      <c r="B56">
+        <v>4.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A57" s="1">
         <v>38960</v>
       </c>
-      <c r="B56">
+      <c r="B57">
         <v>4.1999999999999997E-3</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A57" s="1">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A58" s="1">
         <v>38990</v>
-      </c>
-      <c r="B57">
-        <v>4.0999999999999995E-3</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A58" s="1">
-        <v>39021</v>
       </c>
       <c r="B58">
         <v>4.0999999999999995E-3</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
+        <v>39021</v>
+      </c>
+      <c r="B59">
+        <v>4.0999999999999995E-3</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A60" s="1">
         <v>39051</v>
       </c>
-      <c r="B59">
+      <c r="B60">
         <v>4.1999999999999997E-3</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A60" s="1">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A61" s="1">
         <v>39082</v>
       </c>
-      <c r="B60">
+      <c r="B61">
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A61" s="1">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A62" s="1">
         <v>39113</v>
       </c>
-      <c r="B61">
+      <c r="B62">
         <v>4.4000000000000003E-3</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A62" s="1">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A63" s="1">
         <v>39141</v>
       </c>
-      <c r="B62">
+      <c r="B63">
         <v>3.8E-3</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A63" s="1">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A64" s="1">
         <v>39172</v>
       </c>
-      <c r="B63">
+      <c r="B64">
         <v>4.3E-3</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A64" s="1">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A65" s="1">
         <v>39202</v>
       </c>
-      <c r="B64">
+      <c r="B65">
         <v>4.4000000000000003E-3</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A65" s="1">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A66" s="1">
         <v>39233</v>
       </c>
-      <c r="B65">
+      <c r="B66">
         <v>4.0999999999999995E-3</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A66" s="1">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A67" s="1">
         <v>39263</v>
-      </c>
-      <c r="B66">
-        <v>4.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A67" s="1">
-        <v>39294</v>
       </c>
       <c r="B67">
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
+        <v>39294</v>
+      </c>
+      <c r="B68">
+        <v>4.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A69" s="1">
         <v>39325</v>
       </c>
-      <c r="B68">
+      <c r="B69">
         <v>4.1999999999999997E-3</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A69" s="1">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A70" s="1">
         <v>39355</v>
-      </c>
-      <c r="B69">
-        <v>3.2000000000000002E-3</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A70" s="1">
-        <v>39386</v>
       </c>
       <c r="B70">
         <v>3.2000000000000002E-3</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
+        <v>39386</v>
+      </c>
+      <c r="B71">
+        <v>3.2000000000000002E-3</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A72" s="1">
         <v>39416</v>
       </c>
-      <c r="B71">
+      <c r="B72">
         <v>3.4000000000000002E-3</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A72" s="1">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A73" s="1">
         <v>39447</v>
       </c>
-      <c r="B72">
+      <c r="B73">
         <v>2.7000000000000001E-3</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A73" s="1">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A74" s="1">
         <v>39478</v>
       </c>
-      <c r="B73">
+      <c r="B74">
         <v>2.0999999999999999E-3</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A74" s="1">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A75" s="1">
         <v>39507</v>
       </c>
-      <c r="B74">
+      <c r="B75">
         <v>1.2999999999999999E-3</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A75" s="1">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A76" s="1">
         <v>39538</v>
       </c>
-      <c r="B75">
+      <c r="B76">
         <v>1.7000000000000001E-3</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A76" s="1">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A77" s="1">
         <v>39568</v>
-      </c>
-      <c r="B76">
-        <v>1.8E-3</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A77" s="1">
-        <v>39599</v>
       </c>
       <c r="B77">
         <v>1.8E-3</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
+        <v>39599</v>
+      </c>
+      <c r="B78">
+        <v>1.8E-3</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A79" s="1">
         <v>39629</v>
       </c>
-      <c r="B78">
+      <c r="B79">
         <v>1.7000000000000001E-3</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A79" s="1">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A80" s="1">
         <v>39660</v>
       </c>
-      <c r="B79">
+      <c r="B80">
         <v>1.5E-3</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A80" s="1">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A81" s="1">
         <v>39691</v>
       </c>
-      <c r="B80">
+      <c r="B81">
         <v>1.2999999999999999E-3</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A81" s="1">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A82" s="1">
         <v>39721</v>
       </c>
-      <c r="B81">
+      <c r="B82">
         <v>1.5E-3</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A82" s="1">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A83" s="1">
         <v>39752</v>
       </c>
-      <c r="B82">
+      <c r="B83">
         <v>8.0000000000000004E-4</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A83" s="1">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A84" s="1">
         <v>39782</v>
       </c>
-      <c r="B83">
+      <c r="B84">
         <v>2.9999999999999997E-4</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A84" s="1">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A85" s="1">
         <v>39813</v>
       </c>
-      <c r="B84">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A85" s="1">
+      <c r="B85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A86" s="1">
         <v>39844</v>
       </c>
-      <c r="B85">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A86" s="1">
+      <c r="B86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A87" s="1">
         <v>39872</v>
       </c>
-      <c r="B86">
-        <v>1E-4</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A87" s="1">
+      <c r="B87">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A88" s="1">
         <v>39903</v>
       </c>
-      <c r="B87">
+      <c r="B88">
         <v>2.0000000000000001E-4</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A88" s="1">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A89" s="1">
         <v>39933</v>
       </c>
-      <c r="B88">
-        <v>1E-4</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A89" s="1">
+      <c r="B89">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A90" s="1">
         <v>39964</v>
       </c>
-      <c r="B89">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A90" s="1">
+      <c r="B90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A91" s="1">
         <v>39994</v>
       </c>
-      <c r="B90">
-        <v>1E-4</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A91" s="1">
+      <c r="B91">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A92" s="1">
         <v>40025</v>
       </c>
-      <c r="B91">
-        <v>1E-4</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A92" s="1">
+      <c r="B92">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A93" s="1">
         <v>40056</v>
       </c>
-      <c r="B92">
-        <v>1E-4</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A93" s="1">
+      <c r="B93">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A94" s="1">
         <v>40086</v>
       </c>
-      <c r="B93">
-        <v>1E-4</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A94" s="1">
+      <c r="B94">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A95" s="1">
         <v>40117</v>
       </c>
-      <c r="B94">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A95" s="1">
+      <c r="B95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A96" s="1">
         <v>40147</v>
       </c>
-      <c r="B95">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A96" s="1">
+      <c r="B96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A97" s="1">
         <v>40178</v>
       </c>
-      <c r="B96">
-        <v>1E-4</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A97" s="1">
+      <c r="B97">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A98" s="1">
         <v>40209</v>
       </c>
-      <c r="B97">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A98" s="1">
+      <c r="B98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A99" s="1">
         <v>40237</v>
       </c>
-      <c r="B98">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A99" s="1">
+      <c r="B99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A100" s="1">
         <v>40268</v>
       </c>
-      <c r="B99">
-        <v>1E-4</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A100" s="1">
+      <c r="B100">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A101" s="1">
         <v>40298</v>
       </c>
-      <c r="B100">
-        <v>1E-4</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A101" s="1">
+      <c r="B101">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A102" s="1">
         <v>40329</v>
       </c>
-      <c r="B101">
-        <v>1E-4</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A102" s="1">
+      <c r="B102">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A103" s="1">
         <v>40359</v>
       </c>
-      <c r="B102">
-        <v>1E-4</v>
-      </c>
-    </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A103" s="1">
+      <c r="B103">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A104" s="1">
         <v>40390</v>
       </c>
-      <c r="B103">
-        <v>1E-4</v>
-      </c>
-    </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A104" s="1">
+      <c r="B104">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A105" s="1">
         <v>40421</v>
       </c>
-      <c r="B104">
-        <v>1E-4</v>
-      </c>
-    </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A105" s="1">
+      <c r="B105">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A106" s="1">
         <v>40451</v>
       </c>
-      <c r="B105">
-        <v>1E-4</v>
-      </c>
-    </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A106" s="1">
+      <c r="B106">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A107" s="1">
         <v>40482</v>
       </c>
-      <c r="B106">
-        <v>1E-4</v>
-      </c>
-    </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A107" s="1">
+      <c r="B107">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A108" s="1">
         <v>40512</v>
       </c>
-      <c r="B107">
-        <v>1E-4</v>
-      </c>
-    </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A108" s="1">
+      <c r="B108">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A109" s="1">
         <v>40543</v>
       </c>
-      <c r="B108">
-        <v>1E-4</v>
-      </c>
-    </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A109" s="1">
+      <c r="B109">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A110" s="1">
         <v>40574</v>
       </c>
-      <c r="B109">
-        <v>1E-4</v>
-      </c>
-    </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A110" s="1">
+      <c r="B110">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A111" s="1">
         <v>40602</v>
       </c>
-      <c r="B110">
-        <v>1E-4</v>
-      </c>
-    </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A111" s="1">
+      <c r="B111">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A112" s="1">
         <v>40633</v>
       </c>
-      <c r="B111">
-        <v>1E-4</v>
-      </c>
-    </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A112" s="1">
+      <c r="B112">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A113" s="1">
         <v>40663</v>
       </c>
-      <c r="B112">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A113" s="1">
+      <c r="B113">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A114" s="1">
         <v>40694</v>
       </c>
-      <c r="B113">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A114" s="1">
+      <c r="B114">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A115" s="1">
         <v>40724</v>
       </c>
-      <c r="B114">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A115" s="1">
+      <c r="B115">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A116" s="1">
         <v>40755</v>
       </c>
-      <c r="B115">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A116" s="1">
+      <c r="B116">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A117" s="1">
         <v>40786</v>
       </c>
-      <c r="B116">
-        <v>1E-4</v>
-      </c>
-    </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A117" s="1">
+      <c r="B117">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A118" s="1">
         <v>40816</v>
       </c>
-      <c r="B117">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A118" s="1">
+      <c r="B118">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A119" s="1">
         <v>40847</v>
       </c>
-      <c r="B118">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A119" s="1">
+      <c r="B119">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A120" s="1">
         <v>40877</v>
       </c>
-      <c r="B119">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A120" s="1">
+      <c r="B120">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A121" s="1">
         <v>40908</v>
       </c>
-      <c r="B120">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A121" s="1">
+      <c r="B121">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A122" s="1">
         <v>40939</v>
       </c>
-      <c r="B121">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A122" s="1">
+      <c r="B122">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A123" s="1">
         <v>40968</v>
       </c>
-      <c r="B122">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A123" s="1">
+      <c r="B123">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A124" s="1">
         <v>40999</v>
       </c>
-      <c r="B123">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A124" s="1">
+      <c r="B124">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A125" s="1">
         <v>41029</v>
       </c>
-      <c r="B124">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A125" s="1">
+      <c r="B125">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A126" s="1">
         <v>41060</v>
       </c>
-      <c r="B125">
-        <v>1E-4</v>
-      </c>
-    </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A126" s="1">
+      <c r="B126">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A127" s="1">
         <v>41090</v>
       </c>
-      <c r="B126">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A127" s="1">
+      <c r="B127">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A128" s="1">
         <v>41121</v>
       </c>
-      <c r="B127">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A128" s="1">
+      <c r="B128">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A129" s="1">
         <v>41152</v>
       </c>
-      <c r="B128">
-        <v>1E-4</v>
-      </c>
-    </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A129" s="1">
+      <c r="B129">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A130" s="1">
         <v>41182</v>
       </c>
-      <c r="B129">
-        <v>1E-4</v>
-      </c>
-    </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A130" s="1">
+      <c r="B130">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A131" s="1">
         <v>41213</v>
       </c>
-      <c r="B130">
-        <v>1E-4</v>
-      </c>
-    </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A131" s="1">
+      <c r="B131">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A132" s="1">
         <v>41243</v>
       </c>
-      <c r="B131">
-        <v>1E-4</v>
-      </c>
-    </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A132" s="1">
+      <c r="B132">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A133" s="1">
         <v>41274</v>
       </c>
-      <c r="B132">
-        <v>1E-4</v>
-      </c>
-    </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A133" s="1">
+      <c r="B133">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A134" s="1">
         <v>41305</v>
       </c>
-      <c r="B133">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A134" s="1">
+      <c r="B134">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A135" s="1">
         <v>41333</v>
       </c>
-      <c r="B134">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A135" s="1">
+      <c r="B135">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A136" s="1">
         <v>41364</v>
       </c>
-      <c r="B135">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A136" s="1">
+      <c r="B136">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A137" s="1">
         <v>41394</v>
       </c>
-      <c r="B136">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A137" s="1">
+      <c r="B137">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A138" s="1">
         <v>41425</v>
       </c>
-      <c r="B137">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A138" s="1">
+      <c r="B138">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A139" s="1">
         <v>41455</v>
       </c>
-      <c r="B138">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A139" s="1">
+      <c r="B139">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A140" s="1">
         <v>41486</v>
       </c>
-      <c r="B139">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A140" s="1">
+      <c r="B140">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A141" s="1">
         <v>41517</v>
       </c>
-      <c r="B140">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A141" s="1">
+      <c r="B141">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A142" s="1">
         <v>41547</v>
       </c>
-      <c r="B141">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A142" s="1">
+      <c r="B142">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A143" s="1">
         <v>41578</v>
       </c>
-      <c r="B142">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A143" s="1">
+      <c r="B143">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A144" s="1">
         <v>41608</v>
       </c>
-      <c r="B143">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A144" s="1">
+      <c r="B144">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A145" s="1">
         <v>41639</v>
       </c>
-      <c r="B144">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A145" s="1">
+      <c r="B145">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A146" s="1">
         <v>41670</v>
       </c>
-      <c r="B145">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A146" s="1">
+      <c r="B146">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A147" s="1">
         <v>41698</v>
       </c>
-      <c r="B146">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A147" s="1">
+      <c r="B147">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A148" s="1">
         <v>41729</v>
       </c>
-      <c r="B147">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A148" s="1">
+      <c r="B148">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A149" s="1">
         <v>41759</v>
       </c>
-      <c r="B148">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A149" s="1">
+      <c r="B149">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A150" s="1">
         <v>41790</v>
       </c>
-      <c r="B149">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A150" s="1">
+      <c r="B150">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A151" s="1">
         <v>41820</v>
       </c>
-      <c r="B150">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A151" s="1">
+      <c r="B151">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A152" s="1">
         <v>41851</v>
       </c>
-      <c r="B151">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A152" s="1">
+      <c r="B152">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A153" s="1">
         <v>41882</v>
       </c>
-      <c r="B152">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A153" s="1">
+      <c r="B153">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A154" s="1">
         <v>41912</v>
       </c>
-      <c r="B153">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A154" s="1">
+      <c r="B154">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A155" s="1">
         <v>41943</v>
       </c>
-      <c r="B154">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A155" s="1">
+      <c r="B155">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A156" s="1">
         <v>41973</v>
       </c>
-      <c r="B155">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A156" s="1">
+      <c r="B156">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A157" s="1">
         <v>42004</v>
       </c>
-      <c r="B156">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A157" s="1">
+      <c r="B157">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A158" s="1">
         <v>42035</v>
       </c>
-      <c r="B157">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A158" s="1">
+      <c r="B158">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A159" s="1">
         <v>42063</v>
       </c>
-      <c r="B158">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A159" s="1">
+      <c r="B159">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A160" s="1">
         <v>42094</v>
       </c>
-      <c r="B159">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A160" s="1">
+      <c r="B160">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A161" s="1">
         <v>42124</v>
       </c>
-      <c r="B160">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A161" s="1">
+      <c r="B161">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A162" s="1">
         <v>42155</v>
       </c>
-      <c r="B161">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A162" s="1">
+      <c r="B162">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A163" s="1">
         <v>42185</v>
       </c>
-      <c r="B162">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A163" s="1">
+      <c r="B163">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A164" s="1">
         <v>42216</v>
       </c>
-      <c r="B163">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A164" s="1">
+      <c r="B164">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A165" s="1">
         <v>42247</v>
       </c>
-      <c r="B164">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A165" s="1">
+      <c r="B165">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A166" s="1">
         <v>42277</v>
       </c>
-      <c r="B165">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A166" s="1">
+      <c r="B166">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A167" s="1">
         <v>42308</v>
       </c>
-      <c r="B166">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A167" s="1">
+      <c r="B167">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A168" s="1">
         <v>42338</v>
       </c>
-      <c r="B167">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A168" s="1">
+      <c r="B168">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A169" s="1">
         <v>42369</v>
       </c>
-      <c r="B168">
-        <v>1E-4</v>
-      </c>
-    </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A169" s="1">
+      <c r="B169">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A170" s="1">
         <v>42400</v>
       </c>
-      <c r="B169">
-        <v>1E-4</v>
-      </c>
-    </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A170" s="1">
+      <c r="B170">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A171" s="1">
         <v>42429</v>
-      </c>
-      <c r="B170">
-        <v>2.0000000000000001E-4</v>
-      </c>
-    </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A171" s="1">
-        <v>42460</v>
       </c>
       <c r="B171">
         <v>2.0000000000000001E-4</v>
       </c>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A172" s="1">
+        <v>42460</v>
+      </c>
+      <c r="B172">
+        <v>2.0000000000000001E-4</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A173" s="1">
         <v>42490</v>
       </c>
-      <c r="B172">
-        <v>1E-4</v>
-      </c>
-    </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A173" s="1">
+      <c r="B173">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A174" s="1">
         <v>42521</v>
       </c>
-      <c r="B173">
-        <v>1E-4</v>
-      </c>
-    </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A174" s="1">
+      <c r="B174">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A175" s="1">
         <v>42551</v>
-      </c>
-      <c r="B174">
-        <v>2.0000000000000001E-4</v>
-      </c>
-    </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A175" s="1">
-        <v>42582</v>
       </c>
       <c r="B175">
         <v>2.0000000000000001E-4</v>
       </c>
     </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A176" s="1">
-        <v>42613</v>
+        <v>42582</v>
       </c>
       <c r="B176">
         <v>2.0000000000000001E-4</v>
       </c>
     </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A177" s="1">
-        <v>42643</v>
+        <v>42613</v>
       </c>
       <c r="B177">
         <v>2.0000000000000001E-4</v>
       </c>
     </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A178" s="1">
-        <v>42674</v>
+        <v>42643</v>
       </c>
       <c r="B178">
         <v>2.0000000000000001E-4</v>
       </c>
     </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A179" s="1">
+        <v>42674</v>
+      </c>
+      <c r="B179">
+        <v>2.0000000000000001E-4</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A180" s="1">
         <v>42704</v>
       </c>
-      <c r="B179">
-        <v>1E-4</v>
-      </c>
-    </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A180" s="1">
+      <c r="B180">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A181" s="1">
         <v>42735</v>
       </c>
-      <c r="B180">
+      <c r="B181">
         <v>2.9999999999999997E-4</v>
       </c>
     </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A181" s="1">
+    <row r="182" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A182" s="1">
         <v>42766</v>
-      </c>
-      <c r="B181">
-        <v>4.0000000000000002E-4</v>
-      </c>
-    </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A182" s="1">
-        <v>42794</v>
       </c>
       <c r="B182">
         <v>4.0000000000000002E-4</v>
       </c>
     </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A183" s="1">
+        <v>42794</v>
+      </c>
+      <c r="B183">
+        <v>4.0000000000000002E-4</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A184" s="1">
         <v>42825</v>
       </c>
-      <c r="B183">
+      <c r="B184">
         <v>2.9999999999999997E-4</v>
       </c>
     </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A184" s="1">
+    <row r="185" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A185" s="1">
         <v>42855</v>
       </c>
-      <c r="B184">
+      <c r="B185">
         <v>5.0000000000000001E-4</v>
       </c>
     </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A185" s="1">
+    <row r="186" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A186" s="1">
         <v>42886</v>
-      </c>
-      <c r="B185">
-        <v>5.9999999999999995E-4</v>
-      </c>
-    </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A186" s="1">
-        <v>42916</v>
       </c>
       <c r="B186">
         <v>5.9999999999999995E-4</v>
       </c>
     </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A187" s="1">
+        <v>42916</v>
+      </c>
+      <c r="B187">
+        <v>5.9999999999999995E-4</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A188" s="1">
         <v>42947</v>
       </c>
-      <c r="B187">
+      <c r="B188">
         <v>7.000000000000001E-4</v>
       </c>
     </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A188" s="1">
+    <row r="189" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A189" s="1">
         <v>42978</v>
-      </c>
-      <c r="B188">
-        <v>8.9999999999999998E-4</v>
-      </c>
-    </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A189" s="1">
-        <v>43008</v>
       </c>
       <c r="B189">
         <v>8.9999999999999998E-4</v>
       </c>
     </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A190" s="1">
-        <v>43039</v>
+        <v>43008</v>
       </c>
       <c r="B190">
         <v>8.9999999999999998E-4</v>
       </c>
     </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A191" s="1">
+        <v>43039</v>
+      </c>
+      <c r="B191">
+        <v>8.9999999999999998E-4</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A192" s="1">
         <v>43069</v>
       </c>
-      <c r="B191">
+      <c r="B192">
         <v>8.0000000000000004E-4</v>
       </c>
     </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A192" s="1">
+    <row r="193" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A193" s="1">
         <v>43100</v>
       </c>
-      <c r="B192">
+      <c r="B193">
         <v>8.9999999999999998E-4</v>
       </c>
     </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A193" s="1">
+    <row r="194" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A194" s="1">
         <v>43131</v>
-      </c>
-      <c r="B193">
-        <v>1.1000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A194" s="1">
-        <v>43159</v>
       </c>
       <c r="B194">
         <v>1.1000000000000001E-3</v>
       </c>
     </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A195" s="1">
+        <v>43159</v>
+      </c>
+      <c r="B195">
+        <v>1.1000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A196" s="1">
         <v>43190</v>
       </c>
-      <c r="B195">
+      <c r="B196">
         <v>1.1999999999999999E-3</v>
       </c>
     </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A196" s="1">
+    <row r="197" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A197" s="1">
         <v>43220</v>
-      </c>
-      <c r="B196">
-        <v>1.4000000000000002E-3</v>
-      </c>
-    </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A197" s="1">
-        <v>43251</v>
       </c>
       <c r="B197">
         <v>1.4000000000000002E-3</v>
       </c>
     </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A198" s="1">
-        <v>43281</v>
+        <v>43251</v>
       </c>
       <c r="B198">
         <v>1.4000000000000002E-3</v>
       </c>
     </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A199" s="1">
+        <v>43281</v>
+      </c>
+      <c r="B199">
+        <v>1.4000000000000002E-3</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A200" s="1">
         <v>43312</v>
-      </c>
-      <c r="B199">
-        <v>1.6000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A200" s="1">
-        <v>43343</v>
       </c>
       <c r="B200">
         <v>1.6000000000000001E-3</v>
       </c>
     </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A201" s="1">
+        <v>43343</v>
+      </c>
+      <c r="B201">
+        <v>1.6000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A202" s="1">
         <v>43373</v>
       </c>
-      <c r="B201">
+      <c r="B202">
         <v>1.5E-3</v>
       </c>
     </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A202" s="1">
+    <row r="203" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A203" s="1">
         <v>43404</v>
       </c>
-      <c r="B202">
+      <c r="B203">
         <v>1.9E-3</v>
       </c>
     </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A203" s="1">
+    <row r="204" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A204" s="1">
         <v>43434</v>
       </c>
-      <c r="B203">
+      <c r="B204">
         <v>1.8E-3</v>
       </c>
     </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A204" s="1">
+    <row r="205" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A205" s="1">
         <v>43465</v>
       </c>
-      <c r="B204">
+      <c r="B205">
         <v>1.9E-3</v>
       </c>
     </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A205" s="1">
+    <row r="206" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A206" s="1">
         <v>43496</v>
       </c>
-      <c r="B205">
+      <c r="B206">
         <v>2.0999999999999999E-3</v>
       </c>
     </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A206" s="1">
+    <row r="207" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A207" s="1">
         <v>43524</v>
       </c>
-      <c r="B206">
+      <c r="B207">
         <v>1.8E-3</v>
       </c>
     </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A207" s="1">
+    <row r="208" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A208" s="1">
         <v>43555</v>
       </c>
-      <c r="B207">
+      <c r="B208">
         <v>1.9E-3</v>
       </c>
     </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A208" s="1">
+    <row r="209" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A209" s="1">
         <v>43585</v>
-      </c>
-      <c r="B208">
-        <v>2.0999999999999999E-3</v>
-      </c>
-    </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A209" s="1">
-        <v>43616</v>
       </c>
       <c r="B209">
         <v>2.0999999999999999E-3</v>
       </c>
     </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A210" s="1">
+        <v>43616</v>
+      </c>
+      <c r="B210">
+        <v>2.0999999999999999E-3</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A211" s="1">
         <v>43646</v>
       </c>
-      <c r="B210">
+      <c r="B211">
         <v>1.8E-3</v>
       </c>
     </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A211" s="1">
+    <row r="212" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A212" s="1">
         <v>43677</v>
       </c>
-      <c r="B211">
+      <c r="B212">
         <v>1.9E-3</v>
       </c>
     </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A212" s="1">
+    <row r="213" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A213" s="1">
         <v>43708</v>
       </c>
-      <c r="B212">
+      <c r="B213">
         <v>1.6000000000000001E-3</v>
       </c>
     </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A213" s="1">
+    <row r="214" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A214" s="1">
         <v>43738</v>
       </c>
-      <c r="B213">
+      <c r="B214">
         <v>1.8E-3</v>
       </c>
     </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A214" s="1">
+    <row r="215" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A215" s="1">
         <v>43769</v>
       </c>
-      <c r="B214">
+      <c r="B215">
         <v>1.5E-3</v>
       </c>
     </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A215" s="1">
+    <row r="216" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A216" s="1">
         <v>43799</v>
       </c>
-      <c r="B215">
+      <c r="B216">
         <v>1.1999999999999999E-3</v>
       </c>
     </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A216" s="1">
+    <row r="217" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A217" s="1">
         <v>43830</v>
       </c>
-      <c r="B216">
+      <c r="B217">
         <v>1.4000000000000002E-3</v>
       </c>
     </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A217" s="1">
+    <row r="218" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A218" s="1">
         <v>43861</v>
       </c>
-      <c r="B217">
+      <c r="B218">
         <v>1.2999999999999999E-3</v>
       </c>
     </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A218" s="1">
+    <row r="219" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A219" s="1">
         <v>43890</v>
-      </c>
-      <c r="B218">
-        <v>1.1999999999999999E-3</v>
-      </c>
-    </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A219" s="1">
-        <v>43921</v>
       </c>
       <c r="B219">
         <v>1.1999999999999999E-3</v>
       </c>
     </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A220" s="1">
+        <v>43921</v>
+      </c>
+      <c r="B220">
+        <v>1.1999999999999999E-3</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A221" s="1">
         <v>43951</v>
       </c>
-      <c r="B220">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A221" s="1">
+      <c r="B221">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A222" s="1">
         <v>43982</v>
       </c>
-      <c r="B221">
-        <v>1E-4</v>
-      </c>
-    </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A222" s="1">
+      <c r="B222">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A223" s="1">
         <v>44012</v>
       </c>
-      <c r="B222">
-        <v>1E-4</v>
-      </c>
-    </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A223" s="1">
+      <c r="B223">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A224" s="1">
         <v>44043</v>
       </c>
-      <c r="B223">
-        <v>1E-4</v>
-      </c>
-    </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A224" s="1">
+      <c r="B224">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A225" s="1">
         <v>44074</v>
       </c>
-      <c r="B224">
-        <v>1E-4</v>
-      </c>
-    </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A225" s="1">
+      <c r="B225">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A226" s="1">
         <v>44104</v>
       </c>
-      <c r="B225">
-        <v>1E-4</v>
-      </c>
-    </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A226" s="1">
+      <c r="B226">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A227" s="1">
         <v>44135</v>
       </c>
-      <c r="B226">
-        <v>1E-4</v>
-      </c>
-    </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A227" s="1">
+      <c r="B227">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A228" s="1">
         <v>44165</v>
       </c>
-      <c r="B227">
-        <v>1E-4</v>
-      </c>
-    </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A228" s="1">
+      <c r="B228">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A229" s="1">
         <v>44196</v>
       </c>
-      <c r="B228">
+      <c r="B229">
         <v>1E-4</v>
       </c>
     </row>

--- a/eurf.xlsx
+++ b/eurf.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mbela\Downloads\Data_Excel\Data_Excel\MSCI_ESGscores\FF\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mbela\ecole\FIN-429-Sustainable-finance\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{133A9703-BA79-4650-9FF6-1C28809FCFDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6ACD0D48-08CA-4C73-BE0D-770C3708BC49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1428" yWindow="1476" windowWidth="17280" windowHeight="9960" xr2:uid="{50FC72A7-C13A-4AA5-ADA7-E409A5B38808}"/>
   </bookViews>
